--- a/nmadb/501395.xlsx
+++ b/nmadb/501395.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2">
         <v>5</v>
@@ -789,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J9" s="2">
         <v>7</v>
@@ -815,7 +815,7 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2">
         <v>8</v>
